--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1240988.777216583</v>
+        <v>1352279.565020499</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>269.010098463741</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>285.5453800016779</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.2067794713425</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.1628810027747</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>178.0961400445155</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.777037568467492</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>234.3107022885812</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>93.45907817175731</v>
       </c>
       <c r="T8" t="n">
-        <v>81.31357411831611</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>43.60620160013876</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>123.5756458870621</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.34033882261211</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.2174302415105</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>75.42907708199171</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.73664328357061</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>105.6571329437508</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>77.09075258260994</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.06850886110918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>72.76043038243009</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>121.0738855299387</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185944</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>143.3674220664874</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>49.38162151974991</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8391364745399</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365954</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.146815977588</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.146815977588</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>753.3585633793437</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3726585897361</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>550.798971477663</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2547.717292284314</v>
       </c>
       <c r="T8" t="n">
-        <v>2383.80799051105</v>
+        <v>2329.082625256377</v>
       </c>
       <c r="U8" t="n">
-        <v>2383.80799051105</v>
+        <v>2329.082625256377</v>
       </c>
       <c r="V8" t="n">
-        <v>2383.80799051105</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.80799051105</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.982325640618</v>
+        <v>603.305099472028</v>
       </c>
       <c r="S10" t="n">
-        <v>579.982325640618</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092198</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092198</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V10" t="n">
-        <v>97.98965010333288</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.98965010333288</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750122</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667474</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1940.16642113163</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2219.706486350327</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2424.728967132537</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1435.946231343143</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1236.026221258695</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1012.240806048201</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>723.1121672617595</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>468.4276790558727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>468.4276790558727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,7 +5300,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1002.792923427375</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>1310.113056707336</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5431,19 +5431,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y16" t="n">
-        <v>1298.996260473455</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>485.404702608941</v>
+        <v>506.3718661188905</v>
       </c>
       <c r="L18" t="n">
-        <v>732.169830515405</v>
+        <v>1120.268935875779</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1440.604255405481</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0685056491545</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1323227212476</v>
+        <v>323.5247178241284</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0156833089119</v>
+        <v>173.4080784117927</v>
       </c>
       <c r="E19" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>492.4609007520353</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>742.2299438224031</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>1062.565263352105</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1866.976841616256</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.787643677749</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6072,16 +6072,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>510.3034215191122</v>
+        <v>719.1546442656656</v>
       </c>
       <c r="M24" t="n">
-        <v>830.638741048814</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1175.159396686432</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1844.623157989091</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3565.879770627534</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>3747.528235457774</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>3747.528235457774</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>3747.528235457774</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>614.5476508568242</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1228.444720613713</v>
+        <v>1217.336708612435</v>
       </c>
       <c r="M27" t="n">
-        <v>1548.780040143415</v>
+        <v>1524.656841892396</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.780040143415</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.0842369787848</v>
+        <v>1050.134140516355</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
         <v>822.1480540508779</v>
@@ -6379,7 +6379,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1469.554140395166</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1469.554140395166</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1245.768725184672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1245.768725184672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>991.0842369787848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>991.0842369787848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>991.0842369787848</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.0842369787848</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>232.3332043549318</v>
+        <v>428.6143585616994</v>
       </c>
       <c r="L30" t="n">
-        <v>479.0983322613959</v>
+        <v>658.5774644300485</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3644.185369519404</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>3644.185369519404</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>3644.185369519404</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>3644.185369519404</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3644.185369519404</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3644.185369519404</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4382.384669597912</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>4092.967499560951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>3864.977948662934</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y31" t="n">
-        <v>3644.185369519404</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3540.192194764784</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>4344.603773028935</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O33" t="n">
-        <v>4624.143838247633</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P33" t="n">
-        <v>4829.166319029842</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4627.482615505473</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>4627.482615505473</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>4627.482615505473</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V34" t="n">
-        <v>4627.482615505473</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W34" t="n">
-        <v>4338.065445468513</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X34" t="n">
-        <v>4110.075894570496</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y34" t="n">
-        <v>3889.283315426965</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>194.6816645826971</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>320.0392246405345</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L36" t="n">
-        <v>550.0023305088837</v>
+        <v>755.6843634038122</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.370476901345</v>
+        <v>1524.052509796274</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1154.180682628518</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7181,22 +7181,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>994.7638819868625</v>
       </c>
       <c r="N39" t="n">
-        <v>2386.556406270543</v>
+        <v>1799.175460251013</v>
       </c>
       <c r="O39" t="n">
-        <v>2386.556406270543</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P39" t="n">
-        <v>2386.556406270543</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3879.86772021712</v>
+        <v>441.9005583181145</v>
       </c>
       <c r="C40" t="n">
-        <v>3710.931537289213</v>
+        <v>441.9005583181145</v>
       </c>
       <c r="D40" t="n">
-        <v>3710.931537289213</v>
+        <v>441.9005583181145</v>
       </c>
       <c r="E40" t="n">
-        <v>3710.931537289213</v>
+        <v>293.9874647357213</v>
       </c>
       <c r="F40" t="n">
-        <v>3710.931537289213</v>
+        <v>147.097517237811</v>
       </c>
       <c r="G40" t="n">
-        <v>3710.931537289213</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4571.72593422785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>4282.30876419089</v>
+        <v>441.9005583181145</v>
       </c>
       <c r="X40" t="n">
-        <v>4282.30876419089</v>
+        <v>441.9005583181145</v>
       </c>
       <c r="Y40" t="n">
-        <v>4061.51618504736</v>
+        <v>441.9005583181145</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>395.9961833785279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1009.893253135417</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M42" t="n">
-        <v>1778.261399527878</v>
+        <v>1139.068153712028</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1943.479731976179</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,61 +7634,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M45" t="n">
-        <v>1808.163466324677</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.163466324677</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>4845.969074748059</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>4556.551904711098</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4328.562353813081</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>4107.769774669551</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>169.6459293658643</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>210.9608310571247</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>281.6347972617409</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.1343618674848</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>16.16806136059736</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>56.53888480510471</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>247.8595372572727</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>14.0680263367484</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>214.6643442733999</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.62401358118066</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.6145499404268</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>71.00488556457746</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>95.68260218070137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.5789023442195</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>61.58968815487708</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>90.1560685160179</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.89584354268361</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.15339798510604</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>76.84692445366454</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,19 +25360,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>78.18013899190183</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>117.1119469436277</v>
       </c>
       <c r="H40" t="n">
-        <v>10.07469189299621</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>30.75201340998657</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,16 +25834,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,16 +26071,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26323,10 +26323,10 @@
         <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26335,25 +26335,25 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721362</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933962</v>
+        <v>-298734.9902933959</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211486</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211488</v>
+        <v>291232.8889211487</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440531</v>
+        <v>-129148.8314440533</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328436</v>
+        <v>396011.2050328433</v>
       </c>
       <c r="G6" t="n">
         <v>396011.2050328435</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328434</v>
+        <v>396011.2050328437</v>
       </c>
       <c r="I6" t="n">
         <v>396011.2050328434</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402505</v>
+        <v>219587.9858402504</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328434</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328436</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="M6" t="n">
         <v>261210.1897990062</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328433</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="O6" t="n">
         <v>396011.2050328436</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328433</v>
+        <v>396011.2050328434</v>
       </c>
     </row>
   </sheetData>
@@ -26738,37 +26738,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990179</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>96.26279330726652</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>128.2387900191171</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.21426855158875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>243.118993239203</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.1767517264921</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>130.8675288472112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>163.5327646905834</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>52.21229604800976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>80.95663463721422</v>
       </c>
       <c r="T8" t="n">
-        <v>135.1347462393417</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>112.5646872416564</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>23.08954609309573</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,40 +31519,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N9" t="n">
-        <v>91.883251075293</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,43 +31835,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>175.1732645054587</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>130.7575552831034</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4405547138953</v>
+        <v>276.6596810411301</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>118.6626388367725</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>377.3319892206167</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32570,16 +32570,16 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>227.9311082690289</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33044,16 +33044,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>232.4121821352563</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,28 +33506,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>285.0631269188133</v>
       </c>
       <c r="Q33" t="n">
-        <v>171.9901114440528</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,22 +33977,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>169.3156975679449</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>7.172050210143738</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>108.7057302678302</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34451,16 +34451,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>331.8073893088566</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>523.173926765679</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>200.8530689329309</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>630.4412169741155</v>
+        <v>145.3179689577968</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>224.1074838346392</v>
+        <v>245.2864368749921</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>609.6179547442017</v>
       </c>
       <c r="M21" t="n">
-        <v>480.0703064163307</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>460.2185360131489</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>488.7282121932656</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>354.5549063072485</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>548.392066823509</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,10 +36692,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>94.57074316089731</v>
+        <v>166.7434999485366</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>151.0887195044831</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00833735803128</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>98.4490637600114</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>497.117242213297</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>296.4317285778565</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>239.4112112177725</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>133.7958482483633</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>432.2767600958118</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>193.2530095289825</v>
       </c>
       <c r="M45" t="n">
-        <v>525.0887213238661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918720.724787797</v>
+        <v>1994250.394452602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1352279.565020499</v>
+        <v>1280299.153071542</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10299987.76416144</v>
+        <v>10299987.76416143</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>269.010098463741</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>26.49677716875706</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.1628810027747</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.466470981599</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>178.0961400445155</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>202.8504658884255</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.777037568467492</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>101.2538627862647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>355.0453786996762</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>93.45907817175731</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>123.5756458870621</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.5756458870621</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>185.55672602176</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.42907708199171</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>1.330101594738964</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.2530778377178</v>
+        <v>127.8144229774397</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>252.6747480032687</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.09075258260994</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>86.35097755594407</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.27546844094988</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>143.3674220664874</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>259.3061888821588</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>49.38162151974991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.0799667719507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>281.1484359425182</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>166.2140976094962</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.38466963564</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4437,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>538.7689125078493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.576038264086</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2492.249630524863</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837985</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>201.8761353302652</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2547.717292284314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2329.082625256377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2329.082625256377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1998.019737912806</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4984,10 +4986,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>603.305099472028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>389.0166762901907</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
         <v>389.0166762901907</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805494</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494012</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N12" t="n">
-        <v>1940.16642113163</v>
+        <v>2115.681725457453</v>
       </c>
       <c r="O12" t="n">
-        <v>2219.706486350327</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2424.728967132537</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5176,16 +5178,16 @@
         <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5217,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
         <v>1322.84934122136</v>
@@ -5252,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704857</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427375</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="M15" t="n">
-        <v>1310.113056707336</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975555</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,19 +5433,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1111.565224087838</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>1111.565224087838</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>506.3718661188905</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1120.268935875779</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.604255405481</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2265.10952679667</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.4609007520353</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>323.5247178241284</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4080784117927</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1386.497630155345</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1386.497630155345</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1097.368991368903</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>1097.368991368903</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500526</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4609007520353</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y19" t="n">
-        <v>492.4609007520353</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>742.2299438224031</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.565263352105</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.976841616256</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2536.440602918915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.92115703528</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.92115703528</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1187.92115703528</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>2469.614271993086</v>
       </c>
       <c r="L24" t="n">
-        <v>719.1546442656656</v>
+        <v>2716.37939989955</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>260.0156833089119</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>112.1025897265188</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1132.614148934608</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>877.929660728721</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>877.929660728721</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L27" t="n">
-        <v>1217.336708612435</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M27" t="n">
-        <v>1524.656841892396</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N27" t="n">
-        <v>1854.519469556429</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1050.134140516355</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="D28" t="n">
         <v>822.1480540508779</v>
@@ -6379,7 +6381,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516355</v>
+        <v>909.3712637033467</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>428.6143585616994</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>658.5774644300485</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="M30" t="n">
-        <v>1426.94561082251</v>
+        <v>981.7486957371228</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.466266460128</v>
+        <v>1311.611323401156</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1426.920847890277</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1203.135432679783</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6698,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="N33" t="n">
-        <v>2107.322705390779</v>
+        <v>1423.270537802985</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.862770609477</v>
+        <v>2092.734299105645</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.843747251887</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6937,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,7 +6964,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7017,25 +7019,25 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>755.6843634038122</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
-        <v>1524.052509796274</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N36" t="n">
-        <v>2328.464088060424</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>1154.180682628518</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U37" t="n">
-        <v>865.0520438420759</v>
+        <v>4598.92912969898</v>
       </c>
       <c r="V37" t="n">
-        <v>865.0520438420759</v>
+        <v>4344.244641493093</v>
       </c>
       <c r="W37" t="n">
-        <v>865.0520438420759</v>
+        <v>4054.827471456132</v>
       </c>
       <c r="X37" t="n">
-        <v>637.0624929440586</v>
+        <v>3826.837920558115</v>
       </c>
       <c r="Y37" t="n">
-        <v>416.2699138005285</v>
+        <v>3606.045341414585</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>994.7638819868625</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N39" t="n">
-        <v>1799.175460251013</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.642871543091</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.9005583181145</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>441.9005583181145</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>441.9005583181145</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>293.9874647357213</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>147.097517237811</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181145</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>441.9005583181145</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.9005583181145</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="M42" t="n">
-        <v>1139.068153712028</v>
+        <v>3269.187507643264</v>
       </c>
       <c r="N42" t="n">
-        <v>1943.479731976179</v>
+        <v>3896.281394395919</v>
       </c>
       <c r="O42" t="n">
-        <v>2612.943493278838</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>4353.080838669942</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>4098.396350464055</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>3808.979180427095</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259884</v>
+        <v>3808.979180427095</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8029164824583</v>
+        <v>3808.979180427095</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>479.098332261396</v>
+        <v>530.4931589837784</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1298.86130537624</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8775,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>100.7234952346988</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9249,22 +9251,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>66.97837913134873</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>210.9608310571247</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>299.1343618674848</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>16.16806136059736</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>219.2041188937616</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>247.8595372572727</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>14.0680263367484</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>100.6806263768174</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>71.00488556457746</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.5907083888643</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.5789023442195</v>
+        <v>52.01755720449762</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>130.6844047393606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>33.5626043953086</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>90.1560685160179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>62.26449546226829</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>126.6453415426534</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>10.654974866147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>78.18013899190183</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>26.93116351641856</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>117.1119469436277</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.75201340998657</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>5.088916456059167</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>120.0232547890812</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
         <v>488786.324672136</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26503,7 +26505,7 @@
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933959</v>
+        <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211486</v>
+        <v>291232.8889211481</v>
       </c>
       <c r="D6" t="n">
         <v>291232.8889211487</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440533</v>
+        <v>-129148.8314440526</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328433</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="G6" t="n">
         <v>396011.2050328435</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328437</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="I6" t="n">
         <v>396011.2050328434</v>
@@ -26546,22 +26548,22 @@
         <v>219587.9858402504</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328435</v>
+        <v>396011.2050328432</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328435</v>
+        <v>396011.2050328437</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990062</v>
+        <v>261210.1897990063</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328435</v>
+        <v>396011.2050328433</v>
       </c>
       <c r="O6" t="n">
         <v>396011.2050328436</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328434</v>
+        <v>396011.2050328432</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>96.26279330726652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>27.98162540605465</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27537,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>243.118993239203</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.11818237049579</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>187.1767517264921</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>124.9017925817094</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.5327646905834</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>54.91702605553047</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>26.88499137258555</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>80.95663463721422</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>23.08954609309573</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>101.4594595710222</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31130,7 +31132,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>7.172050210143709</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.7575552831034</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>276.6596810411301</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>118.6626388367725</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32557,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>377.3319892206167</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>228.4763109920284</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32788,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>232.4121821352554</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33037,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>408.5315900543038</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,13 +33502,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
@@ -33515,10 +33517,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>285.0631269188133</v>
+        <v>270.8799576227406</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33737,28 +33739,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>263.0852605347125</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33971,19 +33973,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>145.1299578148862</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34129,7 +34131,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34150,7 +34152,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34208,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>108.7057302678302</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>285.4275061768043</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>331.8073893088566</v>
+        <v>205.3666279344883</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>258.4381250424288</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.8530689329309</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>349.981200190723</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>145.3179689577968</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2864368749921</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>274.0717940628734</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>609.6179547442017</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>97.13459890869507</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>94.57074316089641</v>
       </c>
       <c r="L24" t="n">
-        <v>460.2185360131489</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>548.392066823509</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>166.7434999485366</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>501.5678211348699</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0887195044831</v>
+        <v>455.3683188483475</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>497.117242213297</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>514.3513353669975</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>493.1306200751064</v>
       </c>
       <c r="O39" t="n">
-        <v>296.4317285778565</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>432.2767600958118</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>633.4281684370245</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>193.2530095289825</v>
+        <v>437.6525934580733</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994250.394452602</v>
+        <v>1987233.379560891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1280299.153071542</v>
+        <v>587682.3959733031</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.49677716875706</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.028559943667979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.466470981599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>202.8504658884255</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2538627862647</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>29.41204342723531</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>355.0453786996762</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>150.8400357509158</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.31785343914019</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5756458870621</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>8.627084658457099</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>185.55672602176</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.330101594738964</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.8144229774397</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>118.1109778236444</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>252.6747480032687</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>86.35097755594407</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.27546844094988</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0.8576818890146845</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>259.3061888821588</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>281.1484359425182</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>166.2140976094962</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.38466963564</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S2" t="n">
-        <v>2494.20718194981</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T2" t="n">
-        <v>2494.20718194981</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U2" t="n">
-        <v>2494.20718194981</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V2" t="n">
-        <v>2494.20718194981</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W2" t="n">
-        <v>2494.20718194981</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X2" t="n">
-        <v>2494.20718194981</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>2494.20718194981</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,10 +4421,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.03243630891797</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>538.7689125078493</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224074</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>2492.249630524863</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>2139.480975254749</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9927747426009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9927747426009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8761353302652</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>201.8761353302652</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>201.8761353302652</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>201.8761353302652</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.4198494314491</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.4198494314491</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.4198494314491</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426009</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1722.185086336931</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.185086336931</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1722.185086336931</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336931</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464749</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084173</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648872</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5071,7 +5071,7 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>854.5887484936144</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.161069819836</v>
+        <v>854.5887484936144</v>
       </c>
       <c r="N12" t="n">
-        <v>2115.681725457453</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,31 +5345,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>854.5887484936143</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>854.5887484936143</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.000326757765</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1490.202043630168</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1490.202043630168</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1490.202043630168</v>
       </c>
       <c r="U16" t="n">
-        <v>1111.565224087838</v>
+        <v>1201.073404843726</v>
       </c>
       <c r="V16" t="n">
-        <v>1111.565224087838</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W16" t="n">
-        <v>822.1480540508779</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
-        <v>1595.645765494011</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2265.10952679667</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1386.497630155345</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1386.497630155345</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1097.368991368903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1097.368991368903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>807.9518213319425</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>579.9622704339251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>263.5382936126482</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.90644000511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1268.537149116047</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2469.614271993086</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.37939989955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.2811958984813</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1132.614148934608</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>877.929660728721</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>877.929660728721</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>877.929660728721</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.929660728721</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764783</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>909.3712637033467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>909.3712637033467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>909.3712637033467</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>909.3712637033467</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.3712637033467</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>674.4285624571611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>981.7486957371228</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N30" t="n">
-        <v>1311.611323401156</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1426.920847890277</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1203.135432679783</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>914.0067938933407</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>914.0067938933407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>914.0067938933407</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>618.8589595388348</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N33" t="n">
-        <v>1423.270537802985</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.734299105645</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.325632214049</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1288.325632214049</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4598.92912969898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4344.244641493093</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4054.827471456132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3826.837920558115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527472</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1353.784551727103</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2023.248313029762</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>3269.187507643264</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>3896.281394395919</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>4565.745155698578</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4353.080838669942</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>4098.396350464055</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>3808.979180427095</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3808.979180427095</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3808.979180427095</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7733,22 +7733,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>530.4931589837784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.86130537624</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>2103.272883640391</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1107.237827459029</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.237827459029</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>1107.237827459029</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X46" t="n">
-        <v>879.2482765610114</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.2482765610114</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>100.7234952346988</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>66.97837913134873</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>219.2041188937616</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>101.3372677453357</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>100.6806263768174</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>196.5907083888643</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.01755720449762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>79.80983215995884</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>33.5626043953086</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>62.26449546226829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>126.6453415426534</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>178.9742982929226</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>26.93116351641856</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>91.26539274301206</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.088916456059167</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>120.0232547890812</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>220.382146181237</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,19 +26325,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
         <v>488786.324672136</v>
@@ -26346,16 +26346,16 @@
         <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933961</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211481</v>
+        <v>291232.8889211483</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211487</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440526</v>
+        <v>-130123.4227037737</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731215</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402504</v>
+        <v>218613.3945805289</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328432</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328437</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990063</v>
+        <v>260235.5985392848</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="O6" t="n">
-        <v>396011.2050328436</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328432</v>
+        <v>395036.6137731218</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.98162540605465</v>
+        <v>39.33357018799795</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>128.9370618486703</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.11818237049579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>6.975201561408184</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>124.9017925817094</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.91702605553047</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>182.7334955227836</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.88499137258555</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>218.8910649275533</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594877</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>101.4594595710222</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31129,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,13 +31141,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>117.6952346671383</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>7.172050210143709</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,16 +32086,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>94.51601612995717</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32314,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32551,28 +32551,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>228.4763109920284</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32788,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>232.4121821352554</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>408.5315900543038</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33508,28 +33508,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>270.8799576227406</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,22 +33736,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>263.0852605347125</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,10 +33982,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>145.1299578148862</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33994,16 +33994,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647508</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>285.4275061768043</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,7 +34444,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34453,25 +34453,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.3666279344883</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>349.9812001907233</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4381250424288</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>349.981200190723</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>442.5166783901774</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>274.0717940628734</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>97.13459890869507</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>94.57074316089641</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N27" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>501.5678211348699</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>455.3683188483475</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>514.3513353669975</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>493.1306200751064</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>633.4281684370245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>437.6525934580733</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987233.379560891</v>
+        <v>1992172.642409923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>587682.3959733031</v>
+        <v>512771.8506175872</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.028559943667979</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.50320101340354</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>172.268909497142</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>87.1257470790879</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>29.41204342723531</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>150.8400357509158</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343914019</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.19510348422553</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>178.7699890365988</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.627084658457099</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>216.3943965412046</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.1109778236444</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>4.181425369522263</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8576818890146845</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>81.23424437140348</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>11.89446409565918</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.14085215535403</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>365.6939024587809</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>217.7808088763878</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>60.03243630891797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2649.166059691552</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2649.166059691552</v>
+        <v>2468.111402056653</v>
       </c>
       <c r="T5" t="n">
-        <v>2649.166059691552</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>1918.413847685145</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1565.645192415031</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1192.179434153951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>288.8387344486666</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.4198494314491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.4198494314491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.4198494314491</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>443.7353612255621</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>443.7353612255621</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084173</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648872</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>854.5887484936144</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="M12" t="n">
-        <v>854.5887484936144</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="N12" t="n">
         <v>1659.000326757765</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>2328.464088060424</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2466.537363487138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1490.202043630168</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1490.202043630168</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1490.202043630168</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.073404843726</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>946.3889166378392</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>656.9717466008786</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X16" t="n">
-        <v>428.9821957028613</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>446.7290208898078</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5518,13 +5518,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>1280.336072031433</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1268.537149116047</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1044.751733905552</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1044.751733905552</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.751733905552</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>755.3345638685918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
         <v>1138.699705022018</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6551,19 +6551,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1416.861478263555</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1416.861478263555</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1127.732839477114</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>873.0483512712267</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>583.631181234266</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.9733843006353</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,19 +7025,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7153,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805471</v>
@@ -7414,46 +7414,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,19 +7499,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,19 +7736,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.107328986838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849285</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>381.5997261417976</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.061991145338453</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.3372677453357</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>35.7432467826234</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.80983215995884</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.0559270290551</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>78.25505057341479</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.9742982929226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037966</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>116.6865656121998</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>155.3523570029687</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.382146181237</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="10">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,37 +26325,37 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721362</v>
       </c>
       <c r="L2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721362</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721362</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768956</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-298734.9902933961</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211484</v>
+        <v>291232.8889211486</v>
       </c>
       <c r="E6" t="n">
-        <v>-130123.4227037737</v>
+        <v>-129246.2905700249</v>
       </c>
       <c r="F6" t="n">
-        <v>395036.6137731215</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="G6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="H6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="I6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="J6" t="n">
-        <v>218613.3945805289</v>
+        <v>219490.5267142783</v>
       </c>
       <c r="K6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068715</v>
       </c>
       <c r="L6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="M6" t="n">
-        <v>260235.5985392848</v>
+        <v>261112.7306730343</v>
       </c>
       <c r="N6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="O6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068715</v>
       </c>
       <c r="P6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068712</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>128.9370618486703</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.975201561408184</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>2.146803311829473</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>59.30821556748127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>182.7334955227836</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>218.8910649275533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523655</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,28 +31834,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>117.6952346671383</v>
+        <v>117.695234667138</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32089,7 +32089,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>94.51601612995717</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>88.52685189461752</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32323,22 +32323,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>225.0728617982309</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32812,13 +32812,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33049,13 +33049,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33523,13 +33523,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33997,13 +33997,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34222,10 +34222,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>340.85460907735</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34471,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>349.9812001907233</v>
+        <v>349.981200190723</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35737,16 +35737,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>442.5166783901774</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>158.6223655444451</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>476.338936630516</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629101</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>239.4656922197793</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>592.1206839096351</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
